--- a/Unit_Testing - 4B.xlsx
+++ b/Unit_Testing - 4B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W5G\OpenSCSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D734BA3-2799-4321-91D1-8F9F0AF9968B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0109CB-B930-465E-A894-0B8F6A39F943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{06B2537C-7BF8-44BD-9FAA-7A44331C0859}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06B2537C-7BF8-44BD-9FAA-7A44331C0859}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,12 +464,6 @@
     <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -477,6 +471,12 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +824,10 @@
   <dimension ref="A1:BG106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AG49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomRight" activeCell="AJ76" sqref="AJ76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,7 +840,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="2">
@@ -980,7 +980,7 @@
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="C2" s="34"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4553,63 +4553,63 @@
       <c r="BF38" s="14"/>
       <c r="BG38" s="14"/>
     </row>
-    <row r="39" spans="1:59" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="37"/>
-      <c r="AE39" s="37"/>
-      <c r="AF39" s="37"/>
-      <c r="AG39" s="37"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="37"/>
-      <c r="AJ39" s="37"/>
-      <c r="AK39" s="37"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="36"/>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="36"/>
-      <c r="AT39" s="36"/>
-      <c r="AU39" s="36"/>
-      <c r="AV39" s="36"/>
-      <c r="AW39" s="36"/>
-      <c r="AX39" s="36"/>
-      <c r="AY39" s="36"/>
-      <c r="AZ39" s="36"/>
-      <c r="BA39" s="36"/>
-      <c r="BB39" s="36"/>
-      <c r="BC39" s="36"/>
-      <c r="BD39" s="36"/>
-      <c r="BE39" s="36"/>
-      <c r="BF39" s="36"/>
-      <c r="BG39" s="36"/>
+    <row r="39" spans="1:59" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="34"/>
+      <c r="AM39" s="34"/>
+      <c r="AN39" s="34"/>
+      <c r="AO39" s="34"/>
+      <c r="AP39" s="34"/>
+      <c r="AQ39" s="34"/>
+      <c r="AR39" s="34"/>
+      <c r="AS39" s="34"/>
+      <c r="AT39" s="34"/>
+      <c r="AU39" s="34"/>
+      <c r="AV39" s="34"/>
+      <c r="AW39" s="34"/>
+      <c r="AX39" s="34"/>
+      <c r="AY39" s="34"/>
+      <c r="AZ39" s="34"/>
+      <c r="BA39" s="34"/>
+      <c r="BB39" s="34"/>
+      <c r="BC39" s="34"/>
+      <c r="BD39" s="34"/>
+      <c r="BE39" s="34"/>
+      <c r="BF39" s="34"/>
+      <c r="BG39" s="34"/>
     </row>
     <row r="40" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
@@ -4753,147 +4753,147 @@
       <c r="BF40" s="11"/>
       <c r="BG40" s="11"/>
     </row>
-    <row r="41" spans="1:59" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+    <row r="41" spans="1:59" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37">
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35">
         <f>J17+J29</f>
         <v>-135348927.51436898</v>
       </c>
-      <c r="K41" s="37">
+      <c r="K41" s="35">
         <f t="shared" ref="K41:AJ41" si="6">K17+K29</f>
         <v>-138055906.06465638</v>
       </c>
-      <c r="L41" s="37">
+      <c r="L41" s="35">
         <f t="shared" si="6"/>
         <v>-140817024.1859495</v>
       </c>
-      <c r="M41" s="37">
+      <c r="M41" s="35">
         <f t="shared" si="6"/>
         <v>-143633364.66966847</v>
       </c>
-      <c r="N41" s="37">
+      <c r="N41" s="35">
         <f t="shared" si="6"/>
         <v>-146506031.96306187</v>
       </c>
-      <c r="O41" s="37">
+      <c r="O41" s="35">
         <f t="shared" si="6"/>
         <v>-149436152.60232309</v>
       </c>
-      <c r="P41" s="37">
+      <c r="P41" s="35">
         <f t="shared" si="6"/>
         <v>-152424875.65436956</v>
       </c>
-      <c r="Q41" s="37">
+      <c r="Q41" s="35">
         <f t="shared" si="6"/>
         <v>-155473373.16745698</v>
       </c>
-      <c r="R41" s="37">
+      <c r="R41" s="35">
         <f t="shared" si="6"/>
         <v>-158582840.63080609</v>
       </c>
-      <c r="S41" s="37">
+      <c r="S41" s="35">
         <f t="shared" si="6"/>
         <v>-161754497.44342223</v>
       </c>
-      <c r="T41" s="37">
+      <c r="T41" s="35">
         <f t="shared" si="6"/>
         <v>-164989587.39229068</v>
       </c>
-      <c r="U41" s="37">
+      <c r="U41" s="35">
         <f t="shared" si="6"/>
         <v>-168289379.14013651</v>
       </c>
-      <c r="V41" s="37">
+      <c r="V41" s="35">
         <f t="shared" si="6"/>
         <v>-171655166.72293922</v>
       </c>
-      <c r="W41" s="37">
+      <c r="W41" s="35">
         <f t="shared" si="6"/>
         <v>-175088270.05739802</v>
       </c>
-      <c r="X41" s="37">
+      <c r="X41" s="35">
         <f t="shared" si="6"/>
         <v>-178590035.45854598</v>
       </c>
-      <c r="Y41" s="37">
+      <c r="Y41" s="35">
         <f t="shared" si="6"/>
         <v>-182161836.16771689</v>
       </c>
-      <c r="Z41" s="37">
+      <c r="Z41" s="35">
         <f t="shared" si="6"/>
         <v>-185805072.89107126</v>
       </c>
-      <c r="AA41" s="37">
+      <c r="AA41" s="35">
         <f t="shared" si="6"/>
         <v>-189521174.34889272</v>
       </c>
-      <c r="AB41" s="37">
+      <c r="AB41" s="35">
         <f t="shared" si="6"/>
         <v>-193311597.83587056</v>
       </c>
-      <c r="AC41" s="37">
+      <c r="AC41" s="35">
         <f t="shared" si="6"/>
         <v>-197177829.79258794</v>
       </c>
-      <c r="AD41" s="37">
+      <c r="AD41" s="35">
         <f t="shared" si="6"/>
         <v>-201121386.38843971</v>
       </c>
-      <c r="AE41" s="37">
+      <c r="AE41" s="35">
         <f t="shared" si="6"/>
         <v>-205143814.11620852</v>
       </c>
-      <c r="AF41" s="37">
+      <c r="AF41" s="35">
         <f t="shared" si="6"/>
         <v>-209246690.39853266</v>
       </c>
-      <c r="AG41" s="37">
+      <c r="AG41" s="35">
         <f t="shared" si="6"/>
         <v>-213431624.20650336</v>
       </c>
-      <c r="AH41" s="37">
+      <c r="AH41" s="35">
         <f t="shared" si="6"/>
         <v>-217700256.69063342</v>
       </c>
-      <c r="AI41" s="37">
+      <c r="AI41" s="35">
         <f t="shared" si="6"/>
         <v>-222054261.82444608</v>
       </c>
-      <c r="AJ41" s="37">
+      <c r="AJ41" s="35">
         <f t="shared" si="6"/>
         <v>-226495347.06093502</v>
       </c>
-      <c r="AK41" s="41"/>
-      <c r="AL41" s="36"/>
-      <c r="AM41" s="36"/>
-      <c r="AN41" s="36"/>
-      <c r="AO41" s="36"/>
-      <c r="AP41" s="36"/>
-      <c r="AQ41" s="36"/>
-      <c r="AR41" s="36"/>
-      <c r="AS41" s="36"/>
-      <c r="AT41" s="36"/>
-      <c r="AU41" s="36"/>
-      <c r="AV41" s="36"/>
-      <c r="AW41" s="36"/>
-      <c r="AX41" s="36"/>
-      <c r="AY41" s="36"/>
-      <c r="AZ41" s="36"/>
-      <c r="BA41" s="36"/>
-      <c r="BB41" s="36"/>
-      <c r="BC41" s="36"/>
-      <c r="BD41" s="36"/>
-      <c r="BE41" s="36"/>
-      <c r="BF41" s="36"/>
-      <c r="BG41" s="36"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="34"/>
+      <c r="AM41" s="34"/>
+      <c r="AN41" s="34"/>
+      <c r="AO41" s="34"/>
+      <c r="AP41" s="34"/>
+      <c r="AQ41" s="34"/>
+      <c r="AR41" s="34"/>
+      <c r="AS41" s="34"/>
+      <c r="AT41" s="34"/>
+      <c r="AU41" s="34"/>
+      <c r="AV41" s="34"/>
+      <c r="AW41" s="34"/>
+      <c r="AX41" s="34"/>
+      <c r="AY41" s="34"/>
+      <c r="AZ41" s="34"/>
+      <c r="BA41" s="34"/>
+      <c r="BB41" s="34"/>
+      <c r="BC41" s="34"/>
+      <c r="BD41" s="34"/>
+      <c r="BE41" s="34"/>
+      <c r="BF41" s="34"/>
+      <c r="BG41" s="34"/>
     </row>
     <row r="42" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D42" s="11"/>
@@ -4954,25 +4954,25 @@
       <c r="BG42" s="11"/>
     </row>
     <row r="43" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="39">
-        <v>0</v>
-      </c>
-      <c r="E43" s="39">
-        <v>0</v>
-      </c>
-      <c r="F43" s="39">
-        <v>0</v>
-      </c>
-      <c r="G43" s="39">
-        <v>0</v>
-      </c>
-      <c r="H43" s="39">
-        <v>0</v>
-      </c>
-      <c r="I43" s="39"/>
+      <c r="D43" s="37">
+        <v>0</v>
+      </c>
+      <c r="E43" s="37">
+        <v>0</v>
+      </c>
+      <c r="F43" s="37">
+        <v>0</v>
+      </c>
+      <c r="G43" s="37">
+        <v>0</v>
+      </c>
+      <c r="H43" s="37">
+        <v>0</v>
+      </c>
+      <c r="I43" s="37"/>
       <c r="J43" s="25">
         <f>J20+J32</f>
         <v>-28412044.171968088</v>
@@ -5081,13 +5081,13 @@
         <f t="shared" si="7"/>
         <v>-47545229.383198112</v>
       </c>
-      <c r="AK43" s="39">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="39">
-        <v>0</v>
-      </c>
-      <c r="AM43" s="39">
+      <c r="AK43" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="37">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="37">
         <v>0</v>
       </c>
       <c r="AN43" s="11"/>
@@ -5115,22 +5115,22 @@
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="39">
-        <v>0</v>
-      </c>
-      <c r="E44" s="39">
-        <v>0</v>
-      </c>
-      <c r="F44" s="39">
-        <v>0</v>
-      </c>
-      <c r="G44" s="39">
-        <v>0</v>
-      </c>
-      <c r="H44" s="39">
-        <v>0</v>
-      </c>
-      <c r="I44" s="39"/>
+      <c r="D44" s="37">
+        <v>0</v>
+      </c>
+      <c r="E44" s="37">
+        <v>0</v>
+      </c>
+      <c r="F44" s="37">
+        <v>0</v>
+      </c>
+      <c r="G44" s="37">
+        <v>0</v>
+      </c>
+      <c r="H44" s="37">
+        <v>0</v>
+      </c>
+      <c r="I44" s="37"/>
       <c r="J44" s="25">
         <f>J21+J33</f>
         <v>-55818688.491665497</v>
@@ -5239,13 +5239,13 @@
         <f t="shared" si="8"/>
         <v>-93408004.441437617</v>
       </c>
-      <c r="AK44" s="39">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="39">
-        <v>0</v>
-      </c>
-      <c r="AM44" s="39">
+      <c r="AK44" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="37">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="37">
         <v>0</v>
       </c>
       <c r="AN44" s="11"/>
@@ -5445,13 +5445,13 @@
         <f t="shared" si="9"/>
         <v>-12085686.221411243</v>
       </c>
-      <c r="AK46" s="39">
-        <v>0</v>
-      </c>
-      <c r="AL46" s="39">
-        <v>0</v>
-      </c>
-      <c r="AM46" s="39">
+      <c r="AK46" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="37">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="37">
         <v>0</v>
       </c>
       <c r="AN46" s="11"/>
@@ -5593,25 +5593,25 @@
         <f t="shared" si="10"/>
         <v>-3576308.2013763678</v>
       </c>
-      <c r="AK47" s="40">
-        <v>0</v>
-      </c>
-      <c r="AL47" s="40">
-        <v>0</v>
-      </c>
-      <c r="AM47" s="40">
+      <c r="AK47" s="38">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="38">
         <f>AM$2427</f>
         <v>0</v>
       </c>
-      <c r="AN47" s="40">
+      <c r="AN47" s="38">
         <f t="shared" ref="AN47:AP47" si="11">AN$2426</f>
         <v>0</v>
       </c>
-      <c r="AO47" s="40">
+      <c r="AO47" s="38">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP47" s="40">
+      <c r="AP47" s="38">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5633,63 +5633,63 @@
       <c r="BF47" s="11"/>
       <c r="BG47" s="11"/>
     </row>
-    <row r="48" spans="1:59" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="37"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="37"/>
-      <c r="AE48" s="37"/>
-      <c r="AF48" s="37"/>
-      <c r="AG48" s="37"/>
-      <c r="AH48" s="37"/>
-      <c r="AI48" s="37"/>
-      <c r="AJ48" s="37"/>
-      <c r="AK48" s="37"/>
-      <c r="AL48" s="36"/>
-      <c r="AM48" s="36"/>
-      <c r="AN48" s="36"/>
-      <c r="AO48" s="36"/>
-      <c r="AP48" s="36"/>
-      <c r="AQ48" s="36"/>
-      <c r="AR48" s="36"/>
-      <c r="AS48" s="36"/>
-      <c r="AT48" s="36"/>
-      <c r="AU48" s="36"/>
-      <c r="AV48" s="36"/>
-      <c r="AW48" s="36"/>
-      <c r="AX48" s="36"/>
-      <c r="AY48" s="36"/>
-      <c r="AZ48" s="36"/>
-      <c r="BA48" s="36"/>
-      <c r="BB48" s="36"/>
-      <c r="BC48" s="36"/>
-      <c r="BD48" s="36"/>
-      <c r="BE48" s="36"/>
-      <c r="BF48" s="36"/>
-      <c r="BG48" s="36"/>
+    <row r="48" spans="1:59" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="35"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
+      <c r="AK48" s="35"/>
+      <c r="AL48" s="34"/>
+      <c r="AM48" s="34"/>
+      <c r="AN48" s="34"/>
+      <c r="AO48" s="34"/>
+      <c r="AP48" s="34"/>
+      <c r="AQ48" s="34"/>
+      <c r="AR48" s="34"/>
+      <c r="AS48" s="34"/>
+      <c r="AT48" s="34"/>
+      <c r="AU48" s="34"/>
+      <c r="AV48" s="34"/>
+      <c r="AW48" s="34"/>
+      <c r="AX48" s="34"/>
+      <c r="AY48" s="34"/>
+      <c r="AZ48" s="34"/>
+      <c r="BA48" s="34"/>
+      <c r="BB48" s="34"/>
+      <c r="BC48" s="34"/>
+      <c r="BD48" s="34"/>
+      <c r="BE48" s="34"/>
+      <c r="BF48" s="34"/>
+      <c r="BG48" s="34"/>
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -6040,7 +6040,7 @@
       <c r="AH54" s="11"/>
       <c r="AI54" s="11"/>
       <c r="AJ54" s="26">
-        <v>-88960004.229940608</v>
+        <v>-533760025.37964356</v>
       </c>
       <c r="AK54" s="11"/>
       <c r="AL54" s="11"/>
@@ -6103,7 +6103,8 @@
       <c r="AH55" s="14"/>
       <c r="AI55" s="14"/>
       <c r="AJ55" s="29">
-        <v>-360647029.27678698</v>
+        <f>SUM(AJ53:AJ54)</f>
+        <v>-805447050.42648995</v>
       </c>
       <c r="AK55" s="14"/>
       <c r="AL55" s="14"/>
@@ -6479,8 +6480,8 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="29">
-        <f t="shared" ref="AJ59" ca="1" si="38">SUM(AJ57:AJ58)</f>
-        <v>-120386408.2612838</v>
+        <f t="shared" ref="AJ59" si="38">SUM(AJ57:AJ58)</f>
+        <v>-86666930.934020907</v>
       </c>
       <c r="AK59" s="14"/>
       <c r="AL59" s="14"/>
@@ -6575,111 +6576,111 @@
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
       <c r="J61" s="9">
-        <f>J20+J32+J53</f>
+        <f t="shared" ref="J61:AJ61" si="39">J20+J32+J53</f>
         <v>-28412044.171968088</v>
       </c>
       <c r="K61" s="9">
-        <f>K20+K32+K53</f>
+        <f t="shared" si="39"/>
         <v>-28980285.05540745</v>
       </c>
       <c r="L61" s="9">
-        <f>L20+L32+L53</f>
+        <f t="shared" si="39"/>
         <v>-29559890.7565156</v>
       </c>
       <c r="M61" s="9">
-        <f>M20+M32+M53</f>
+        <f t="shared" si="39"/>
         <v>-30151088.571645908</v>
       </c>
       <c r="N61" s="9">
-        <f>N20+N32+N53</f>
+        <f t="shared" si="39"/>
         <v>-30754110.343078829</v>
       </c>
       <c r="O61" s="9">
-        <f>O20+O32+O53</f>
+        <f t="shared" si="39"/>
         <v>-31369192.549940407</v>
       </c>
       <c r="P61" s="9">
-        <f>P20+P32+P53</f>
+        <f t="shared" si="39"/>
         <v>-31996576.400939219</v>
       </c>
       <c r="Q61" s="9">
-        <f>Q20+Q32+Q53</f>
+        <f t="shared" si="39"/>
         <v>-32636507.928958006</v>
       </c>
       <c r="R61" s="9">
-        <f>R20+R32+R53</f>
+        <f t="shared" si="39"/>
         <v>-33289238.087537162</v>
       </c>
       <c r="S61" s="9">
-        <f>S20+S32+S53</f>
+        <f t="shared" si="39"/>
         <v>-33955022.849287905</v>
       </c>
       <c r="T61" s="9">
-        <f>T20+T32+T53</f>
+        <f t="shared" si="39"/>
         <v>-34634123.306273669</v>
       </c>
       <c r="U61" s="9">
-        <f>U20+U32+U53</f>
+        <f t="shared" si="39"/>
         <v>-35326805.772399142</v>
       </c>
       <c r="V61" s="9">
-        <f>V20+V32+V53</f>
+        <f t="shared" si="39"/>
         <v>-36033341.887847118</v>
       </c>
       <c r="W61" s="9">
-        <f>W20+W32+W53</f>
+        <f t="shared" si="39"/>
         <v>-36754008.725604065</v>
       </c>
       <c r="X61" s="9">
-        <f>X20+X32+X53</f>
+        <f t="shared" si="39"/>
         <v>-37489088.900116153</v>
       </c>
       <c r="Y61" s="9">
-        <f>Y20+Y32+Y53</f>
+        <f t="shared" si="39"/>
         <v>-38238870.678118467</v>
       </c>
       <c r="Z61" s="9">
-        <f>Z20+Z32+Z53</f>
+        <f t="shared" si="39"/>
         <v>-39003648.091680847</v>
       </c>
       <c r="AA61" s="9">
-        <f>AA20+AA32+AA53</f>
+        <f t="shared" si="39"/>
         <v>-39783721.053514458</v>
       </c>
       <c r="AB61" s="9">
-        <f>AB20+AB32+AB53</f>
+        <f t="shared" si="39"/>
         <v>-40579395.474584758</v>
       </c>
       <c r="AC61" s="9">
-        <f>AC20+AC32+AC53</f>
+        <f t="shared" si="39"/>
         <v>-41390983.384076446</v>
       </c>
       <c r="AD61" s="9">
-        <f>AD20+AD32+AD53</f>
+        <f t="shared" si="39"/>
         <v>-42218803.051757976</v>
       </c>
       <c r="AE61" s="9">
-        <f>AE20+AE32+AE53</f>
+        <f t="shared" si="39"/>
         <v>-43063179.11279314</v>
       </c>
       <c r="AF61" s="9">
-        <f>AF20+AF32+AF53</f>
+        <f t="shared" si="39"/>
         <v>-43924442.695049003</v>
       </c>
       <c r="AG61" s="9">
-        <f>AG20+AG32+AG53</f>
+        <f t="shared" si="39"/>
         <v>-44802931.548949979</v>
       </c>
       <c r="AH61" s="9">
-        <f>AH20+AH32+AH53</f>
+        <f t="shared" si="39"/>
         <v>-45698990.179928988</v>
       </c>
       <c r="AI61" s="9">
-        <f>AI20+AI32+AI53</f>
+        <f t="shared" si="39"/>
         <v>-46612969.983527564</v>
       </c>
       <c r="AJ61" s="9">
-        <f>AJ20+AJ32+AJ53</f>
+        <f t="shared" si="39"/>
         <v>-319232254.43004453</v>
       </c>
       <c r="AK61" s="9"/>
@@ -6717,112 +6718,112 @@
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="10">
-        <f>J21+J33+J54</f>
+        <f t="shared" ref="J62:AJ62" si="40">J21+J33+J54</f>
         <v>-55818688.491665497</v>
       </c>
       <c r="K62" s="10">
-        <f>K21+K33+K54</f>
+        <f t="shared" si="40"/>
         <v>-56935062.261498809</v>
       </c>
       <c r="L62" s="10">
-        <f>L21+L33+L54</f>
+        <f t="shared" si="40"/>
         <v>-58073763.506728791</v>
       </c>
       <c r="M62" s="10">
-        <f>M21+M33+M54</f>
+        <f t="shared" si="40"/>
         <v>-59235238.776863366</v>
       </c>
       <c r="N62" s="10">
-        <f>N21+N33+N54</f>
+        <f t="shared" si="40"/>
         <v>-60419943.552400641</v>
       </c>
       <c r="O62" s="10">
-        <f>O21+O33+O54</f>
+        <f t="shared" si="40"/>
         <v>-61628342.423448652</v>
       </c>
       <c r="P62" s="10">
-        <f>P21+P33+P54</f>
+        <f t="shared" si="40"/>
         <v>-62860909.271917626</v>
       </c>
       <c r="Q62" s="10">
-        <f>Q21+Q33+Q54</f>
+        <f t="shared" si="40"/>
         <v>-64118127.457355969</v>
       </c>
       <c r="R62" s="10">
-        <f>R21+R33+R54</f>
+        <f t="shared" si="40"/>
         <v>-65400490.00650309</v>
       </c>
       <c r="S62" s="10">
-        <f>S21+S33+S54</f>
+        <f t="shared" si="40"/>
         <v>-66708499.806633145</v>
       </c>
       <c r="T62" s="10">
-        <f>T21+T33+T54</f>
+        <f t="shared" si="40"/>
         <v>-68042669.802765816</v>
       </c>
       <c r="U62" s="10">
-        <f>U21+U33+U54</f>
+        <f t="shared" si="40"/>
         <v>-69403523.198821142</v>
       </c>
       <c r="V62" s="10">
-        <f>V21+V33+V54</f>
+        <f t="shared" si="40"/>
         <v>-70791593.66279757</v>
       </c>
       <c r="W62" s="10">
-        <f>W21+W33+W54</f>
+        <f t="shared" si="40"/>
         <v>-72207425.536053509</v>
       </c>
       <c r="X62" s="10">
-        <f>X21+X33+X54</f>
+        <f t="shared" si="40"/>
         <v>-73651574.046774596</v>
       </c>
       <c r="Y62" s="10">
-        <f>Y21+Y33+Y54</f>
+        <f t="shared" si="40"/>
         <v>-75124605.527710095</v>
       </c>
       <c r="Z62" s="10">
-        <f>Z21+Z33+Z54</f>
+        <f t="shared" si="40"/>
         <v>-76627097.638264298</v>
       </c>
       <c r="AA62" s="10">
-        <f>AA21+AA33+AA54</f>
+        <f t="shared" si="40"/>
         <v>-78159639.591029584</v>
       </c>
       <c r="AB62" s="10">
-        <f>AB21+AB33+AB54</f>
+        <f t="shared" si="40"/>
         <v>-79722832.382850185</v>
       </c>
       <c r="AC62" s="10">
-        <f>AC21+AC33+AC54</f>
+        <f t="shared" si="40"/>
         <v>-81317289.030507177</v>
       </c>
       <c r="AD62" s="10">
-        <f>AD21+AD33+AD54</f>
+        <f t="shared" si="40"/>
         <v>-82943634.811117321</v>
       </c>
       <c r="AE62" s="10">
-        <f>AE21+AE33+AE54</f>
+        <f t="shared" si="40"/>
         <v>-84602507.507339671</v>
       </c>
       <c r="AF62" s="10">
-        <f>AF21+AF33+AF54</f>
+        <f t="shared" si="40"/>
         <v>-86294557.657486469</v>
       </c>
       <c r="AG62" s="10">
-        <f>AG21+AG33+AG54</f>
+        <f t="shared" si="40"/>
         <v>-88020448.810636193</v>
       </c>
       <c r="AH62" s="10">
-        <f>AH21+AH33+AH54</f>
+        <f t="shared" si="40"/>
         <v>-89780857.786848918</v>
       </c>
       <c r="AI62" s="10">
-        <f>AI21+AI33+AI54</f>
+        <f t="shared" si="40"/>
         <v>-91576474.942585886</v>
       </c>
       <c r="AJ62" s="10">
-        <f>AJ21+AJ33+AJ54</f>
-        <v>-182368008.67137823</v>
+        <f t="shared" si="40"/>
+        <v>-627168029.82108116</v>
       </c>
       <c r="AK62" s="10"/>
       <c r="AL62" s="10"/>
@@ -6863,108 +6864,108 @@
         <v>-84230732.663633585</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" ref="K63:AJ63" si="39">SUM(K61:K62)</f>
+        <f t="shared" ref="K63:AJ63" si="41">SUM(K61:K62)</f>
         <v>-85915347.316906258</v>
       </c>
       <c r="L63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-87633654.26324439</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-89386327.348509282</v>
       </c>
       <c r="N63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-91174053.89547947</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-92997534.973389059</v>
       </c>
       <c r="P63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-94857485.672856838</v>
       </c>
       <c r="Q63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-96754635.386313975</v>
       </c>
       <c r="R63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-98689728.094040245</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-100663522.65592104</v>
       </c>
       <c r="T63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-102676793.10903949</v>
       </c>
       <c r="U63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-104730328.97122028</v>
       </c>
       <c r="V63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-106824935.5506447</v>
       </c>
       <c r="W63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-108961434.26165757</v>
       </c>
       <c r="X63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-111140662.94689074</v>
       </c>
       <c r="Y63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-113363476.20582856</v>
       </c>
       <c r="Z63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-115630745.72994515</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-117943360.64454404</v>
       </c>
       <c r="AB63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-120302227.85743494</v>
       </c>
       <c r="AC63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-122708272.41458362</v>
       </c>
       <c r="AD63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-125162437.8628753</v>
       </c>
       <c r="AE63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-127665686.6201328</v>
       </c>
       <c r="AF63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-130219000.35253547</v>
       </c>
       <c r="AG63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-132823380.35958618</v>
       </c>
       <c r="AH63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-135479847.96677792</v>
       </c>
       <c r="AI63" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-138189444.92611346</v>
       </c>
       <c r="AJ63" s="12">
-        <f t="shared" si="39"/>
-        <v>-501600263.10142279</v>
+        <f t="shared" si="41"/>
+        <v>-946400284.25112569</v>
       </c>
       <c r="AK63" s="12"/>
       <c r="AL63" s="12"/>
@@ -7059,111 +7060,111 @@
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="9">
-        <f>J24+J36+J57</f>
+        <f t="shared" ref="J65:AJ65" si="42">J24+J36+J57</f>
         <v>-4402126.8685214892</v>
       </c>
       <c r="K65" s="9">
-        <f>K24+K36+K57</f>
+        <f t="shared" si="42"/>
         <v>-4490169.4058919195</v>
       </c>
       <c r="L65" s="9">
-        <f>L24+L36+L57</f>
+        <f t="shared" si="42"/>
         <v>-4579972.7940097582</v>
       </c>
       <c r="M65" s="9">
-        <f>M24+M36+M57</f>
+        <f t="shared" si="42"/>
         <v>-4671572.2498899531</v>
       </c>
       <c r="N65" s="9">
-        <f>N24+N36+N57</f>
+        <f t="shared" si="42"/>
         <v>-4765003.6948877526</v>
       </c>
       <c r="O65" s="9">
-        <f>O24+O36+O57</f>
+        <f t="shared" si="42"/>
         <v>-4860303.7687855083</v>
       </c>
       <c r="P65" s="9">
-        <f>P24+P36+P57</f>
+        <f t="shared" si="42"/>
         <v>-4957509.844161218</v>
       </c>
       <c r="Q65" s="9">
-        <f>Q24+Q36+Q57</f>
+        <f t="shared" si="42"/>
         <v>-5056660.041044442</v>
       </c>
       <c r="R65" s="9">
-        <f>R24+R36+R57</f>
+        <f t="shared" si="42"/>
         <v>-5157793.2418653313</v>
       </c>
       <c r="S65" s="9">
-        <f>S24+S36+S57</f>
+        <f t="shared" si="42"/>
         <v>-5260949.1067026369</v>
       </c>
       <c r="T65" s="9">
-        <f>T24+T36+T57</f>
+        <f t="shared" si="42"/>
         <v>-5366168.0888366904</v>
       </c>
       <c r="U65" s="9">
-        <f>U24+U36+U57</f>
+        <f t="shared" si="42"/>
         <v>-5473491.4506134251</v>
       </c>
       <c r="V65" s="9">
-        <f>V24+V36+V57</f>
+        <f t="shared" si="42"/>
         <v>-5582961.2796256933</v>
       </c>
       <c r="W65" s="9">
-        <f>W24+W36+W57</f>
+        <f t="shared" si="42"/>
         <v>-5694620.5052182069</v>
       </c>
       <c r="X65" s="9">
-        <f>X24+X36+X57</f>
+        <f t="shared" si="42"/>
         <v>-5808512.915322572</v>
       </c>
       <c r="Y65" s="9">
-        <f>Y24+Y36+Y57</f>
+        <f t="shared" si="42"/>
         <v>-5924683.1736290222</v>
       </c>
       <c r="Z65" s="9">
-        <f>Z24+Z36+Z57</f>
+        <f t="shared" si="42"/>
         <v>-6043176.8371016039</v>
       </c>
       <c r="AA65" s="9">
-        <f>AA24+AA36+AA57</f>
+        <f t="shared" si="42"/>
         <v>-6164040.3738436364</v>
       </c>
       <c r="AB65" s="9">
-        <f>AB24+AB36+AB57</f>
+        <f t="shared" si="42"/>
         <v>-6287321.1813205099</v>
       </c>
       <c r="AC65" s="9">
-        <f>AC24+AC36+AC57</f>
+        <f t="shared" si="42"/>
         <v>-6413067.6049469188</v>
       </c>
       <c r="AD65" s="9">
-        <f>AD24+AD36+AD57</f>
+        <f t="shared" si="42"/>
         <v>-6541328.9570458578</v>
       </c>
       <c r="AE65" s="9">
-        <f>AE24+AE36+AE57</f>
+        <f t="shared" si="42"/>
         <v>-6672155.5361867752</v>
       </c>
       <c r="AF65" s="9">
-        <f>AF24+AF36+AF57</f>
+        <f t="shared" si="42"/>
         <v>-55417017.553414159</v>
       </c>
       <c r="AG65" s="9">
-        <f>AG24+AG36+AG57</f>
+        <f t="shared" si="42"/>
         <v>-6941710.6198487207</v>
       </c>
       <c r="AH65" s="9">
-        <f>AH24+AH36+AH57</f>
+        <f t="shared" si="42"/>
         <v>-7080544.8322456954</v>
       </c>
       <c r="AI65" s="9">
-        <f>AI24+AI36+AI57</f>
+        <f t="shared" si="42"/>
         <v>-11848711.981775727</v>
       </c>
       <c r="AJ65" s="9">
-        <f ca="1">AJ24+AJ36+AJ57</f>
+        <f t="shared" si="42"/>
         <v>-98412016.374348685</v>
       </c>
       <c r="AK65" s="11"/>
@@ -7201,111 +7202,111 @@
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="10">
-        <f>J25+J37+J58</f>
+        <f t="shared" ref="J66:AJ66" si="43">J25+J37+J58</f>
         <v>-2137127.6973160398</v>
       </c>
       <c r="K66" s="10">
-        <f>K25+K37+K58</f>
+        <f t="shared" si="43"/>
         <v>-2179870.2512623607</v>
       </c>
       <c r="L66" s="10">
-        <f>L25+L37+L58</f>
+        <f t="shared" si="43"/>
         <v>-2223467.6562876082</v>
       </c>
       <c r="M66" s="10">
-        <f>M25+M37+M58</f>
+        <f t="shared" si="43"/>
         <v>-2267937.0094133602</v>
       </c>
       <c r="N66" s="10">
-        <f>N25+N37+N58</f>
+        <f t="shared" si="43"/>
         <v>-2313295.7496016272</v>
       </c>
       <c r="O66" s="10">
-        <f>O25+O37+O58</f>
+        <f t="shared" si="43"/>
         <v>-2359561.6645936598</v>
       </c>
       <c r="P66" s="10">
-        <f>P25+P37+P58</f>
+        <f t="shared" si="43"/>
         <v>-2406752.8978855335</v>
       </c>
       <c r="Q66" s="10">
-        <f>Q25+Q37+Q58</f>
+        <f t="shared" si="43"/>
         <v>-2454887.9558432442</v>
       </c>
       <c r="R66" s="10">
-        <f>R25+R37+R58</f>
+        <f t="shared" si="43"/>
         <v>-2503985.714960109</v>
       </c>
       <c r="S66" s="10">
-        <f>S25+S37+S58</f>
+        <f t="shared" si="43"/>
         <v>-2554065.4292593109</v>
       </c>
       <c r="T66" s="10">
-        <f>T25+T37+T58</f>
+        <f t="shared" si="43"/>
         <v>-2605146.7378444974</v>
       </c>
       <c r="U66" s="10">
-        <f>U25+U37+U58</f>
+        <f t="shared" si="43"/>
         <v>-2657249.6726013878</v>
       </c>
       <c r="V66" s="10">
-        <f>V25+V37+V58</f>
+        <f t="shared" si="43"/>
         <v>-2710394.6660534153</v>
       </c>
       <c r="W66" s="10">
-        <f>W25+W37+W58</f>
+        <f t="shared" si="43"/>
         <v>-2764602.5593744838</v>
       </c>
       <c r="X66" s="10">
-        <f>X25+X37+X58</f>
+        <f t="shared" si="43"/>
         <v>-2819894.6105619734</v>
       </c>
       <c r="Y66" s="10">
-        <f>Y25+Y37+Y58</f>
+        <f t="shared" si="43"/>
         <v>-2876292.5027732132</v>
       </c>
       <c r="Z66" s="10">
-        <f>Z25+Z37+Z58</f>
+        <f t="shared" si="43"/>
         <v>-2933818.3528286773</v>
       </c>
       <c r="AA66" s="10">
-        <f>AA25+AA37+AA58</f>
+        <f t="shared" si="43"/>
         <v>-2992494.719885251</v>
       </c>
       <c r="AB66" s="10">
-        <f>AB25+AB37+AB58</f>
+        <f t="shared" si="43"/>
         <v>-3052344.6142829563</v>
       </c>
       <c r="AC66" s="10">
-        <f>AC25+AC37+AC58</f>
+        <f t="shared" si="43"/>
         <v>-3113391.5065686149</v>
       </c>
       <c r="AD66" s="10">
-        <f>AD25+AD37+AD58</f>
+        <f t="shared" si="43"/>
         <v>-3175659.3366999878</v>
       </c>
       <c r="AE66" s="10">
-        <f>AE25+AE37+AE58</f>
+        <f t="shared" si="43"/>
         <v>-3239172.523433988</v>
       </c>
       <c r="AF66" s="10">
-        <f>AF25+AF37+AF58</f>
+        <f t="shared" si="43"/>
         <v>-3303955.9739026669</v>
       </c>
       <c r="AG66" s="10">
-        <f>AG25+AG37+AG58</f>
+        <f t="shared" si="43"/>
         <v>-3370035.0933807208</v>
       </c>
       <c r="AH66" s="10">
-        <f>AH25+AH37+AH58</f>
+        <f t="shared" si="43"/>
         <v>-3437435.7952483352</v>
       </c>
       <c r="AI66" s="10">
-        <f>AI25+AI37+AI58</f>
+        <f t="shared" si="43"/>
         <v>-3506184.5111533022</v>
       </c>
       <c r="AJ66" s="10">
-        <f ca="1">AJ25+AJ37+AJ58</f>
+        <f t="shared" si="43"/>
         <v>-3916908.9824598315</v>
       </c>
       <c r="AK66" s="11"/>
@@ -7347,108 +7348,108 @@
         <v>-6539254.5658375286</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" ref="K67:AJ67" si="40">SUM(K65:K66)</f>
+        <f t="shared" ref="K67:AJ67" si="44">SUM(K65:K66)</f>
         <v>-6670039.6571542807</v>
       </c>
       <c r="L67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-6803440.4502973668</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-6939509.2593033127</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-7078299.4444893803</v>
       </c>
       <c r="O67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-7219865.4333791677</v>
       </c>
       <c r="P67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-7364262.7420467511</v>
       </c>
       <c r="Q67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-7511547.9968876857</v>
       </c>
       <c r="R67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-7661778.9568254407</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-7815014.5359619483</v>
       </c>
       <c r="T67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-7971314.8266811874</v>
       </c>
       <c r="U67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-8130741.1232148129</v>
       </c>
       <c r="V67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-8293355.9456791086</v>
       </c>
       <c r="W67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-8459223.0645926911</v>
       </c>
       <c r="X67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-8628407.5258845463</v>
       </c>
       <c r="Y67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-8800975.6764022354</v>
       </c>
       <c r="Z67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-8976995.1899302807</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-9156535.0937288869</v>
       </c>
       <c r="AB67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-9339665.7956034653</v>
       </c>
       <c r="AC67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-9526459.1115155332</v>
       </c>
       <c r="AD67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-9716988.2937458456</v>
       </c>
       <c r="AE67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-9911328.0596207641</v>
       </c>
       <c r="AF67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-58720973.527316824</v>
       </c>
       <c r="AG67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-10311745.713229442</v>
       </c>
       <c r="AH67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-10517980.62749403</v>
       </c>
       <c r="AI67" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>-15354896.49292903</v>
       </c>
       <c r="AJ67" s="12">
-        <f t="shared" ca="1" si="40"/>
-        <v>-136048402.68407142</v>
+        <f t="shared" si="44"/>
+        <v>-102328925.35680851</v>
       </c>
       <c r="AK67" s="14"/>
       <c r="AL67" s="14"/>
@@ -7543,111 +7544,111 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="9">
-        <f>J16+J28+J49</f>
+        <f t="shared" ref="J69:AJ69" si="45">J16+J28+J49</f>
         <v>-65919941.282346278</v>
       </c>
       <c r="K69" s="9">
-        <f>K16+K28+K49</f>
+        <f t="shared" si="45"/>
         <v>-67238340.1079932</v>
       </c>
       <c r="L69" s="9">
-        <f>L16+L28+L49</f>
+        <f t="shared" si="45"/>
         <v>-68583106.910153076</v>
       </c>
       <c r="M69" s="9">
-        <f>M16+M28+M49</f>
+        <f t="shared" si="45"/>
         <v>-69954769.048356131</v>
       </c>
       <c r="N69" s="9">
-        <f>N16+N28+N49</f>
+        <f t="shared" si="45"/>
         <v>-71353864.429323256</v>
       </c>
       <c r="O69" s="9">
-        <f>O16+O28+O49</f>
+        <f t="shared" si="45"/>
         <v>-72780941.717909724</v>
       </c>
       <c r="P69" s="9">
-        <f>P16+P28+P49</f>
+        <f t="shared" si="45"/>
         <v>-74236560.552267924</v>
       </c>
       <c r="Q69" s="9">
-        <f>Q16+Q28+Q49</f>
+        <f t="shared" si="45"/>
         <v>-75721291.763313279</v>
       </c>
       <c r="R69" s="9">
-        <f>R16+R28+R49</f>
+        <f t="shared" si="45"/>
         <v>-77235717.598579541</v>
       </c>
       <c r="S69" s="9">
-        <f>S16+S28+S49</f>
+        <f t="shared" si="45"/>
         <v>-78780431.950551122</v>
       </c>
       <c r="T69" s="9">
-        <f>T16+T28+T49</f>
+        <f t="shared" si="45"/>
         <v>-80356040.589562163</v>
       </c>
       <c r="U69" s="9">
-        <f>U16+U28+U49</f>
+        <f t="shared" si="45"/>
         <v>-81963161.401353404</v>
       </c>
       <c r="V69" s="9">
-        <f>V16+V28+V49</f>
+        <f t="shared" si="45"/>
         <v>-83602424.629380479</v>
       </c>
       <c r="W69" s="9">
-        <f>W16+W28+W49</f>
+        <f t="shared" si="45"/>
         <v>-85274473.121968091</v>
       </c>
       <c r="X69" s="9">
-        <f>X16+X28+X49</f>
+        <f t="shared" si="45"/>
         <v>-86979962.584407464</v>
       </c>
       <c r="Y69" s="9">
-        <f>Y16+Y28+Y49</f>
+        <f t="shared" si="45"/>
         <v>-88719561.836095601</v>
       </c>
       <c r="Z69" s="9">
-        <f>Z16+Z28+Z49</f>
+        <f t="shared" si="45"/>
         <v>-90493953.072817504</v>
       </c>
       <c r="AA69" s="9">
-        <f>AA16+AA28+AA49</f>
+        <f t="shared" si="45"/>
         <v>-92303832.134273872</v>
       </c>
       <c r="AB69" s="9">
-        <f>AB16+AB28+AB49</f>
+        <f t="shared" si="45"/>
         <v>-94149908.77695936</v>
       </c>
       <c r="AC69" s="9">
-        <f>AC16+AC28+AC49</f>
+        <f t="shared" si="45"/>
         <v>-96032906.952498555</v>
       </c>
       <c r="AD69" s="9">
-        <f>AD16+AD28+AD49</f>
+        <f t="shared" si="45"/>
         <v>-97953565.091548517</v>
       </c>
       <c r="AE69" s="9">
-        <f>AE16+AE28+AE49</f>
+        <f t="shared" si="45"/>
         <v>-99912636.39337948</v>
       </c>
       <c r="AF69" s="9">
-        <f>AF16+AF28+AF49</f>
+        <f t="shared" si="45"/>
         <v>-101910889.12124705</v>
       </c>
       <c r="AG69" s="9">
-        <f>AG16+AG28+AG49</f>
+        <f t="shared" si="45"/>
         <v>-103949106.90367202</v>
       </c>
       <c r="AH69" s="9">
-        <f>AH16+AH28+AH49</f>
+        <f t="shared" si="45"/>
         <v>-106028089.04174547</v>
       </c>
       <c r="AI69" s="9">
-        <f>AI16+AI28+AI49</f>
+        <f t="shared" si="45"/>
         <v>-108148650.82258038</v>
       </c>
       <c r="AJ69" s="9">
-        <f ca="1">AJ16+AJ28+AJ49</f>
+        <f>AJ16+AJ28+AJ49</f>
         <v>-2040765041.0220914</v>
       </c>
       <c r="AK69" s="9"/>
@@ -7685,111 +7686,111 @@
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="10">
-        <f>J17+J29+J50</f>
+        <f t="shared" ref="J70:AJ70" si="46">J17+J29+J50</f>
         <v>-135348927.51436898</v>
       </c>
       <c r="K70" s="10">
-        <f>K17+K29+K50</f>
+        <f t="shared" si="46"/>
         <v>-138055906.06465638</v>
       </c>
       <c r="L70" s="10">
-        <f>L17+L29+L50</f>
+        <f t="shared" si="46"/>
         <v>-140817024.1859495</v>
       </c>
       <c r="M70" s="10">
-        <f>M17+M29+M50</f>
+        <f t="shared" si="46"/>
         <v>-143633364.66966847</v>
       </c>
       <c r="N70" s="10">
-        <f>N17+N29+N50</f>
+        <f t="shared" si="46"/>
         <v>-146506031.96306187</v>
       </c>
       <c r="O70" s="10">
-        <f>O17+O29+O50</f>
+        <f t="shared" si="46"/>
         <v>-149436152.60232309</v>
       </c>
       <c r="P70" s="10">
-        <f>P17+P29+P50</f>
+        <f t="shared" si="46"/>
         <v>-152424875.65436956</v>
       </c>
       <c r="Q70" s="10">
-        <f>Q17+Q29+Q50</f>
+        <f t="shared" si="46"/>
         <v>-155473373.16745698</v>
       </c>
       <c r="R70" s="10">
-        <f>R17+R29+R50</f>
+        <f t="shared" si="46"/>
         <v>-158582840.63080609</v>
       </c>
       <c r="S70" s="10">
-        <f>S17+S29+S50</f>
+        <f t="shared" si="46"/>
         <v>-161754497.44342223</v>
       </c>
       <c r="T70" s="10">
-        <f>T17+T29+T50</f>
+        <f t="shared" si="46"/>
         <v>-164989587.39229068</v>
       </c>
       <c r="U70" s="10">
-        <f>U17+U29+U50</f>
+        <f t="shared" si="46"/>
         <v>-168289379.14013651</v>
       </c>
       <c r="V70" s="10">
-        <f>V17+V29+V50</f>
+        <f t="shared" si="46"/>
         <v>-171655166.72293922</v>
       </c>
       <c r="W70" s="10">
-        <f>W17+W29+W50</f>
+        <f t="shared" si="46"/>
         <v>-175088270.05739802</v>
       </c>
       <c r="X70" s="10">
-        <f>X17+X29+X50</f>
+        <f t="shared" si="46"/>
         <v>-178590035.45854598</v>
       </c>
       <c r="Y70" s="10">
-        <f>Y17+Y29+Y50</f>
+        <f t="shared" si="46"/>
         <v>-182161836.16771689</v>
       </c>
       <c r="Z70" s="10">
-        <f>Z17+Z29+Z50</f>
+        <f t="shared" si="46"/>
         <v>-185805072.89107126</v>
       </c>
       <c r="AA70" s="10">
-        <f>AA17+AA29+AA50</f>
+        <f t="shared" si="46"/>
         <v>-189521174.34889272</v>
       </c>
       <c r="AB70" s="10">
-        <f>AB17+AB29+AB50</f>
+        <f t="shared" si="46"/>
         <v>-193311597.83587056</v>
       </c>
       <c r="AC70" s="10">
-        <f>AC17+AC29+AC50</f>
+        <f t="shared" si="46"/>
         <v>-197177829.79258794</v>
       </c>
       <c r="AD70" s="10">
-        <f>AD17+AD29+AD50</f>
+        <f t="shared" si="46"/>
         <v>-201121386.38843971</v>
       </c>
       <c r="AE70" s="10">
-        <f>AE17+AE29+AE50</f>
+        <f t="shared" si="46"/>
         <v>-205143814.11620852</v>
       </c>
       <c r="AF70" s="10">
-        <f>AF17+AF29+AF50</f>
+        <f t="shared" si="46"/>
         <v>-209246690.39853266</v>
       </c>
       <c r="AG70" s="10">
-        <f>AG17+AG29+AG50</f>
+        <f t="shared" si="46"/>
         <v>-213431624.20650336</v>
       </c>
       <c r="AH70" s="10">
-        <f>AH17+AH29+AH50</f>
+        <f t="shared" si="46"/>
         <v>-217700256.69063342</v>
       </c>
       <c r="AI70" s="10">
-        <f>AI17+AI29+AI50</f>
+        <f t="shared" si="46"/>
         <v>-222054261.82444608</v>
       </c>
       <c r="AJ70" s="10">
-        <f>AJ17+AJ29+AJ50</f>
+        <f t="shared" si="46"/>
         <v>-744198997.48592937</v>
       </c>
       <c r="AK70" s="10"/>
@@ -7831,107 +7832,107 @@
         <v>-201268868.79671526</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" ref="K71:AJ71" si="41">SUM(K69:K70)</f>
+        <f t="shared" ref="K71:AJ71" si="47">SUM(K69:K70)</f>
         <v>-205294246.17264956</v>
       </c>
       <c r="L71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-209400131.0961026</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-213588133.71802461</v>
       </c>
       <c r="N71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-217859896.39238513</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-222217094.32023281</v>
       </c>
       <c r="P71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-226661436.2066375</v>
       </c>
       <c r="Q71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-231194664.93077028</v>
       </c>
       <c r="R71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-235818558.22938561</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-240534929.39397335</v>
       </c>
       <c r="T71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-245345627.98185283</v>
       </c>
       <c r="U71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-250252540.5414899</v>
       </c>
       <c r="V71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-255257591.35231972</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-260362743.17936611</v>
       </c>
       <c r="X71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-265569998.04295343</v>
       </c>
       <c r="Y71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-270881398.00381249</v>
       </c>
       <c r="Z71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-276299025.96388876</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-281825006.48316658</v>
       </c>
       <c r="AB71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-287461506.61282992</v>
       </c>
       <c r="AC71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-293210736.74508649</v>
       </c>
       <c r="AD71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-299074951.47998822</v>
       </c>
       <c r="AE71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-305056450.509588</v>
       </c>
       <c r="AF71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-311157579.51977968</v>
       </c>
       <c r="AG71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-317380731.11017537</v>
       </c>
       <c r="AH71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-323728345.7323789</v>
       </c>
       <c r="AI71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-330202912.64702648</v>
       </c>
       <c r="AJ71" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-2784964038.5080209</v>
       </c>
       <c r="AK71" s="12"/>
@@ -8110,8 +8111,8 @@
       <c r="AG74" s="15"/>
       <c r="AH74" s="15"/>
       <c r="AI74" s="15"/>
-      <c r="AJ74" s="15">
-        <v>1311862930.5599914</v>
+      <c r="AJ74" s="29">
+        <v>661760574.33600569</v>
       </c>
       <c r="AK74" s="15"/>
       <c r="AL74" s="14"/>
@@ -8137,131 +8138,131 @@
       <c r="BF74" s="14"/>
       <c r="BG74" s="14"/>
     </row>
-    <row r="75" spans="1:59" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="35" t="s">
+    <row r="75" spans="1:59" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="41"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="41"/>
-      <c r="V75" s="41"/>
-      <c r="W75" s="41"/>
-      <c r="X75" s="41"/>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="41"/>
-      <c r="AB75" s="41"/>
-      <c r="AC75" s="41"/>
-      <c r="AD75" s="41"/>
-      <c r="AE75" s="41"/>
-      <c r="AF75" s="41"/>
-      <c r="AG75" s="41"/>
-      <c r="AH75" s="41"/>
-      <c r="AI75" s="41"/>
-      <c r="AJ75" s="37">
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="39"/>
+      <c r="Y75" s="39"/>
+      <c r="Z75" s="39"/>
+      <c r="AA75" s="39"/>
+      <c r="AB75" s="39"/>
+      <c r="AC75" s="39"/>
+      <c r="AD75" s="39"/>
+      <c r="AE75" s="39"/>
+      <c r="AF75" s="39"/>
+      <c r="AG75" s="39"/>
+      <c r="AH75" s="39"/>
+      <c r="AI75" s="39"/>
+      <c r="AJ75" s="35">
         <v>722578787.37719762</v>
       </c>
-      <c r="AK75" s="41"/>
-      <c r="AL75" s="36"/>
-      <c r="AM75" s="36"/>
-      <c r="AN75" s="36"/>
-      <c r="AO75" s="36"/>
-      <c r="AP75" s="36"/>
-      <c r="AQ75" s="36"/>
-      <c r="AR75" s="36"/>
-      <c r="AS75" s="36"/>
-      <c r="AT75" s="36"/>
-      <c r="AU75" s="36"/>
-      <c r="AV75" s="36"/>
-      <c r="AW75" s="36"/>
-      <c r="AX75" s="36"/>
-      <c r="AY75" s="36"/>
-      <c r="AZ75" s="36"/>
-      <c r="BA75" s="36"/>
-      <c r="BB75" s="36"/>
-      <c r="BC75" s="36"/>
-      <c r="BD75" s="36"/>
-      <c r="BE75" s="36"/>
-      <c r="BF75" s="36"/>
-      <c r="BG75" s="36"/>
+      <c r="AK75" s="39"/>
+      <c r="AL75" s="34"/>
+      <c r="AM75" s="34"/>
+      <c r="AN75" s="34"/>
+      <c r="AO75" s="34"/>
+      <c r="AP75" s="34"/>
+      <c r="AQ75" s="34"/>
+      <c r="AR75" s="34"/>
+      <c r="AS75" s="34"/>
+      <c r="AT75" s="34"/>
+      <c r="AU75" s="34"/>
+      <c r="AV75" s="34"/>
+      <c r="AW75" s="34"/>
+      <c r="AX75" s="34"/>
+      <c r="AY75" s="34"/>
+      <c r="AZ75" s="34"/>
+      <c r="BA75" s="34"/>
+      <c r="BB75" s="34"/>
+      <c r="BC75" s="34"/>
+      <c r="BD75" s="34"/>
+      <c r="BE75" s="34"/>
+      <c r="BF75" s="34"/>
+      <c r="BG75" s="34"/>
     </row>
-    <row r="76" spans="1:59" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="35" t="s">
+    <row r="76" spans="1:59" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
-      <c r="T76" s="41"/>
-      <c r="U76" s="41"/>
-      <c r="V76" s="41"/>
-      <c r="W76" s="41"/>
-      <c r="X76" s="41"/>
-      <c r="Y76" s="41"/>
-      <c r="Z76" s="41"/>
-      <c r="AA76" s="41"/>
-      <c r="AB76" s="41"/>
-      <c r="AC76" s="41"/>
-      <c r="AD76" s="41"/>
-      <c r="AE76" s="41"/>
-      <c r="AF76" s="41"/>
-      <c r="AG76" s="41"/>
-      <c r="AH76" s="41"/>
-      <c r="AI76" s="41"/>
-      <c r="AJ76" s="37">
-        <v>356915246.17405164</v>
-      </c>
-      <c r="AK76" s="41"/>
-      <c r="AL76" s="36"/>
-      <c r="AM76" s="36"/>
-      <c r="AN76" s="36"/>
-      <c r="AO76" s="36"/>
-      <c r="AP76" s="36"/>
-      <c r="AQ76" s="36"/>
-      <c r="AR76" s="36"/>
-      <c r="AS76" s="36"/>
-      <c r="AT76" s="36"/>
-      <c r="AU76" s="36"/>
-      <c r="AV76" s="36"/>
-      <c r="AW76" s="36"/>
-      <c r="AX76" s="36"/>
-      <c r="AY76" s="36"/>
-      <c r="AZ76" s="36"/>
-      <c r="BA76" s="36"/>
-      <c r="BB76" s="36"/>
-      <c r="BC76" s="36"/>
-      <c r="BD76" s="36"/>
-      <c r="BE76" s="36"/>
-      <c r="BF76" s="36"/>
-      <c r="BG76" s="36"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="39"/>
+      <c r="Y76" s="39"/>
+      <c r="Z76" s="39"/>
+      <c r="AA76" s="39"/>
+      <c r="AB76" s="39"/>
+      <c r="AC76" s="39"/>
+      <c r="AD76" s="39"/>
+      <c r="AE76" s="39"/>
+      <c r="AF76" s="39"/>
+      <c r="AG76" s="39"/>
+      <c r="AH76" s="39"/>
+      <c r="AI76" s="39"/>
+      <c r="AJ76" s="35">
+        <v>187839744.25405237</v>
+      </c>
+      <c r="AK76" s="39"/>
+      <c r="AL76" s="34"/>
+      <c r="AM76" s="34"/>
+      <c r="AN76" s="34"/>
+      <c r="AO76" s="34"/>
+      <c r="AP76" s="34"/>
+      <c r="AQ76" s="34"/>
+      <c r="AR76" s="34"/>
+      <c r="AS76" s="34"/>
+      <c r="AT76" s="34"/>
+      <c r="AU76" s="34"/>
+      <c r="AV76" s="34"/>
+      <c r="AW76" s="34"/>
+      <c r="AX76" s="34"/>
+      <c r="AY76" s="34"/>
+      <c r="AZ76" s="34"/>
+      <c r="BA76" s="34"/>
+      <c r="BB76" s="34"/>
+      <c r="BC76" s="34"/>
+      <c r="BD76" s="34"/>
+      <c r="BE76" s="34"/>
+      <c r="BF76" s="34"/>
+      <c r="BG76" s="34"/>
     </row>
     <row r="78" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
@@ -9227,147 +9228,147 @@
         <v>33</v>
       </c>
       <c r="D99">
-        <f t="shared" ref="D99:AM99" si="42">(1-$B$98)*D97</f>
+        <f t="shared" ref="D99:AM99" si="48">(1-$B$98)*D97</f>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="K99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="L99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="M99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="N99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="O99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="P99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="R99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="S99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="T99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="U99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="V99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="W99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="X99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="Y99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="Z99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="AA99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="AB99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="AC99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="AD99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="AE99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="AF99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="AG99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="AH99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="AI99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="AJ99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>13008600</v>
       </c>
       <c r="AK99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AL99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AM99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -9398,195 +9399,195 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" ref="E102:AZ102" si="43">(1-$B$101)*E99</f>
+        <f t="shared" ref="E102:AZ102" si="49">(1-$B$101)*E99</f>
         <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="K102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="L102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="M102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="N102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="O102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="P102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="R102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="S102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="T102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="U102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="V102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="W102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="X102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="Y102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="Z102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="AA102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="AB102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="AC102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="AD102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="AE102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="AF102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="AG102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="AH102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="AI102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="AJ102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>12748428</v>
       </c>
       <c r="AK102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AL102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AM102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AN102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AO102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AP102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AQ102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AR102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AS102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AT102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AU102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AV102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AW102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AX102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AY102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AZ102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -9617,187 +9618,187 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" ref="E105:AV105" si="44">(1-$B$104)*E102</f>
+        <f t="shared" ref="E105:AV105" si="50">(1-$B$104)*E102</f>
         <v>0</v>
       </c>
       <c r="F105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="I105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="K105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="R105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="S105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="U105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="W105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="X105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Y105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Z105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AA105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AB105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AC105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AD105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AE105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AF105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AG105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AH105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AI105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AJ105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AK105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AL105" s="20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AM105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AN105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AO105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AP105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AQ105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AR105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AS105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AT105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AU105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AV105">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AW105">
-        <f t="shared" ref="AW105:AX105" si="45">(1-$B$101)*AW102</f>
+        <f t="shared" ref="AW105:AX105" si="51">(1-$B$101)*AW102</f>
         <v>0</v>
       </c>
       <c r="AX105">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
